--- a/data/trace.xlsx
+++ b/data/trace.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sem-5\COL334\Assignment\col334\Q3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\sem-5\COL334\Assignment\col334\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Hops" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Google</t>
   </si>
@@ -84,6 +84,12 @@
   <si>
     <t>IIT Delhi (India)</t>
   </si>
+  <si>
+    <t>Local ISP</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
 </sst>
 </file>
 
@@ -136,13 +142,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -160,6 +166,2722 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hop</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETHZ (Switzerland)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Waterloo (Canada east)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Cape Town (South Africa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IIT Delhi (India)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hops!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hops!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hops!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1493614896"/>
+        <c:axId val="-1493605648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1493614896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1493605648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1493605648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1493614896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Latency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ETHZ (Switzerland)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>29.405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.710999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.001000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156.11000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213.203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.80699999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Waterloo (Canada east)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$C$3:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>119.842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.001000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136.86099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>259.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>410</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>University of Cape Town (South Africa)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$D$3:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>172.364</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177.083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>318.23200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.957000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IIT Delhi (India)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$E$3:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>162.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150.00200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>313.84899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.20699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.38499999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Google</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$F$3:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>272.08199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>273.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.00400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215.59800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>297.209</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>421.65499999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Latency!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Facebook</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Latency!$A$3:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Austria(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Czech Republic(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United Kingdom(Europe)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Canada(North America)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Brazil(South America)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>South Africa(Africa)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Local ISP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Latency!$G$3:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>126.745</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>131.708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.98699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-1493606192"/>
+        <c:axId val="-1493613808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-1493606192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1493613808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1493613808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1493606192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,10 +3147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,28 +3165,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -610,6 +3332,29 @@
       </c>
       <c r="G8">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -618,15 +3363,16 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,28 +3387,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -808,6 +3554,29 @@
       </c>
       <c r="G8">
         <v>265.63600000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>219</v>
+      </c>
+      <c r="C9">
+        <v>410</v>
+      </c>
+      <c r="D9">
+        <v>371</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>199</v>
+      </c>
+      <c r="G9">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -815,6 +3584,7 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -822,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,30 +3606,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="N1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1155,12 +3925,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P1:Q1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
